--- a/EEG elctrode map (1).xlsx
+++ b/EEG elctrode map (1).xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Electrode Map" sheetId="1" r:id="rId1"/>
     <sheet name="Stim identifier" sheetId="2" r:id="rId2"/>
+    <sheet name="cap" sheetId="3" r:id="rId3"/>
+    <sheet name="statistics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="116">
   <si>
     <t>'Fp1'</t>
   </si>
@@ -278,6 +280,96 @@
   </si>
   <si>
     <t>שם של הנבדק - משמעות רגשית</t>
+  </si>
+  <si>
+    <t>לא רלוונטי</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>לא בתמונה - אחורית</t>
+  </si>
+  <si>
+    <t>'AF7'</t>
+  </si>
+  <si>
+    <t>'AF8'</t>
+  </si>
+  <si>
+    <t>'Iz'</t>
+  </si>
+  <si>
+    <t>'TP10'</t>
+  </si>
+  <si>
+    <t>'TP9'</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
 </sst>
 </file>
@@ -293,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +416,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,12 +435,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,15 +476,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1132416</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>450851</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83961</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -385,7 +492,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="תוצאת תמונה עבור ‪10-20 electrode placement‬‏">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD7956A-D087-42E6-9CC5-EF57BA256534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DD7956A-D087-42E6-9CC5-EF57BA256534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -408,8 +515,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6900334" y="889000"/>
-          <a:ext cx="5753100" cy="5019675"/>
+          <a:off x="7454194" y="479778"/>
+          <a:ext cx="6296378" cy="4638675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,7 +827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1163,6 +1270,9 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1267,6 +1377,9 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1306,7 +1419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1317,7 +1430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1328,7 +1441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1339,7 +1452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1347,7 +1460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1355,7 +1468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1366,7 +1479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1374,7 +1487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1385,7 +1498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1396,7 +1509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1407,7 +1520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1415,7 +1528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1426,7 +1539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1436,8 +1549,11 @@
       <c r="C61" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1448,7 +1564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1459,7 +1575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1470,7 +1586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1480,37 +1596,52 @@
       <c r="C65" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1625,4 +1756,5048 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.6640625" style="5"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.89126632448749799</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.36009496929665602</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.89126632448749799</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-0.36009496929665602</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.80901699437494801</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.58778525229247303</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.80901699437494801</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.39253812915811E-17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.39073112848927399</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.92050485345244004</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.39253812915811E-17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.39073112848927399</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.92050485345244004</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4.3297802811774701E-17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.3297802811774701E-17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-0.70710678118654802</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.6773636985816105E-17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.92718385456678698</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.37460659341591201</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.6773636985816105E-17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-0.92718385456678698</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.37460659341591201</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-0.370487385972602</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.35777550984135698</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.857167300702112</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-0.370487385972602</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-0.35777550984135698</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.857167300702112</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-0.36589046498407501</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.66008387202973695</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-0.36589046498407501</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-0.66008387202973695</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-0.33456530317942901</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.87157241273869701</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.35836794954529999</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-0.33456530317942901</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.87157241273869701</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.35836794954529999</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-0.37460659341591201</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-4.5876076556629103E-17</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.92718385456678698</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6.1232339957367697E-17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.69975453766943196</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.28271918486560599</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.69975453766943196</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.28271918486560599</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.67302814507021902</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.54500744576871596</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.67302814507021902</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.54500744576871596</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.630644414843062</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.72547341102583895</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.630644414843062</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-0.72547341102583895</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.58778525229247303</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.80901699437494801</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.58778525229247303</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-0.80901699437494801</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.370487385972602</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.35777550984135698</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.857167300702112</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.370487385972602</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-0.35777550984135698</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.857167300702112</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.36589046498407501</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.66008387202973695</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.36589046498407501</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-0.66008387202973695</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.33456530317942901</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.87157241273869701</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.35836794954529999</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>22</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.33456530317942901</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-0.87157241273869701</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.35836794954529999</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.95105651629515398</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.30901699437494701</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.95105651629515398</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-0.30901699437494701</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>15</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.30901699437494701</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.95105651629515398</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>23</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.30901699437494701</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-0.95105651629515398</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-0.92718385456678698</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-1.1354727397163199E-16</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-0.37460659341591201</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>61</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-0.95105651629515398</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.30901699437494801</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>63</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-0.95105651629515398</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-0.30901699437494801</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>62</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-1.22464679914735E-16</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5">
+        <v>-0.69975453766943196</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.28271918486560599</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>49</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-0.69975453766943196</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-0.28271918486560599</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.65605902899050705</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5">
+        <v>-0.67302814507021902</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.54500744576871596</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>50</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
+        <v>-0.67302814507021902</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-0.54500744576871596</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="5">
+        <v>-0.630644414843062</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.72547341102583895</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="5">
+        <v>-0.630644414843062</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-0.72547341102583895</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.80901699437494801</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="5">
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-0.80901699437494801</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>55</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="5">
+        <v>-0.89126632448749799</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.36009496929665602</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="5">
+        <v>-0.89126632448749799</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-0.36009496929665602</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.275637355816999</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5">
+        <v>-0.80901699437494701</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.58778525229247303</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>59</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="5">
+        <v>-0.80901699437494701</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="5">
+        <v>-0.92050485345244004</v>
+      </c>
+      <c r="D56" s="6">
+        <v>-1.1272933223801299E-16</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.39073112848927399</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>48</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="5">
+        <v>-0.70710678118654802</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-8.6595605623549304E-17</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>24</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6.1232339957367697E-17</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>32</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6.1232339957367697E-17</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="5">
+        <v>-0.28445164312142501</v>
+      </c>
+      <c r="D60" s="5">
+        <v>-0.87545213915725895</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-0.39073112848927399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>34</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="5">
+        <v>-0.30901699437494701</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.95105651629515398</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>42</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="5">
+        <v>-0.30901699437494701</v>
+      </c>
+      <c r="D62" s="5">
+        <v>-0.95105651629515398</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="5">
+        <v>-0.28445164312142501</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.87545213915725895</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-0.39073112848927399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>1</v>
+      </c>
+      <c r="P44" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>1</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="7">
+        <v>1</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="7">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="7">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>